--- a/medicine/Enfance/Jean_Feuga/Jean_Feuga.xlsx
+++ b/medicine/Enfance/Jean_Feuga/Jean_Feuga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Feuga, né le 31 juillet 1906 à Saint-Clar (Gers) et mort à Paris 16e le 1er mars 1963[1], est un écrivain de marine. Il est l'auteur de nombreux romans d'aventures pour la jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Feuga, né le 31 juillet 1906 à Saint-Clar (Gers) et mort à Paris 16e le 1er mars 1963, est un écrivain de marine. Il est l'auteur de nombreux romans d'aventures pour la jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre dans la marine en 1923 et séjourne à Bizerte en 1924. Il devient subrécargue en 1946.
 Il se fait connaître dans les années 1930 par ses récits de marine qui furent repris dans les années 1950 dans la collection Bibliothèque verte des éditions Hachette.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste non exhaustive)
 Le Vent à l'étrave..., suivi de Les coupables, Lemerre, 1930
@@ -588,7 +604,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix du Cercle littéraire français pour Le Vent à l'étrave (1930)
 Grand prix de la mer et de l'outre-mer (1954)</t>
